--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1258,10 +1270,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1305,28 +1317,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1351,28 +1363,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1501,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1536,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1594,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4015,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4062,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4108,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4419,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4466,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4512,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4609,10 +4621,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4656,28 +4668,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4702,28 +4714,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4811,10 +4823,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4858,28 +4870,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4904,28 +4916,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5013,10 +5025,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5060,28 +5072,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5106,28 +5118,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5458,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5505,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5551,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5689,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5736,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5782,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5879,10 +5891,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5926,28 +5938,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5972,28 +5984,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6093,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6128,28 +6140,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6186,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6312,10 +6324,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6359,28 +6371,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6405,28 +6417,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6543,10 +6555,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6590,28 +6602,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6636,28 +6648,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6745,10 +6757,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6792,28 +6804,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6838,28 +6850,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
